--- a/对局记录.xlsx
+++ b/对局记录.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Documents\GitHub\doudizhu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F26A7A-932B-4C46-AB4C-A41FA601B828}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B14026A-82DA-4568-A5AD-BB8D691D91A8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22290" windowHeight="17115" xr2:uid="{81049EFF-0B4E-46C3-ADBE-E8CD496518EE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22290" windowHeight="17115" activeTab="1" xr2:uid="{81049EFF-0B4E-46C3-ADBE-E8CD496518EE}"/>
   </bookViews>
   <sheets>
     <sheet name="积分赛1" sheetId="1" r:id="rId1"/>
+    <sheet name="练习赛12" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="192">
   <si>
     <t>轮次</t>
   </si>
@@ -427,16 +428,213 @@
   </si>
   <si>
     <t>https://www.botzone.org/match/5b01a96f765c7d10b6614917</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b07a180ee025470b3894e85</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b07a1cdee025470b3894ed4</t>
+  </si>
+  <si>
+    <t>圆圆</t>
+  </si>
+  <si>
+    <t>nox</t>
+  </si>
+  <si>
+    <t>gxb19960906</t>
+  </si>
+  <si>
+    <t>flickr</t>
+  </si>
+  <si>
+    <t>Doge</t>
+  </si>
+  <si>
+    <t>mxl</t>
+  </si>
+  <si>
+    <t>奔驰牌小坦克</t>
+  </si>
+  <si>
+    <t>训练机 8</t>
+  </si>
+  <si>
+    <t>我也不知道叫什么 10</t>
+  </si>
+  <si>
+    <t>test 9</t>
+  </si>
+  <si>
+    <t>最辣鸡Bot 2</t>
+  </si>
+  <si>
+    <t>Naive 57</t>
+  </si>
+  <si>
+    <t>给东_给东_嘤嘤队 6</t>
+  </si>
+  <si>
+    <t>传新版本 16</t>
+  </si>
+  <si>
+    <t>练习赛12对局列表：</t>
+  </si>
+  <si>
+    <t>新AI：圆圆6</t>
+  </si>
+  <si>
+    <t>比赛AI:圆圆5</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b0825c3ee025470b389a6bf</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b0825e0ee025470b389a7d1</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b08263aee025470b389a8a0</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b082643ee025470b389a8d8</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b0826baee025470b389a9dd</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b0826c5ee025470b389aa3d</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b08270bee025470b389ab0c</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b082731ee025470b389ab9c</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b0827c7ee025470b389ac4e</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b0827d5ee025470b389ad0c</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b082847ee025470b389adc2</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b082882ee025470b389aee3</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b0828f1ee025470b389aefd</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b0828fdee025470b389afd9</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b0864dfee025470b389d034</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b086c67ee025470b389d469</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b086ce5ee025470b389d4f0</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b086dccee025470b389d5c3</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b086f45ee025470b389d665</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b0873bfee025470b389d880</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b087432ee025470b389d8d3</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b0874c9ee025470b389d926</t>
+  </si>
+  <si>
+    <t>对局点评：</t>
+  </si>
+  <si>
+    <t>本轮比赛中， 对方门板34回合接大怪是失误， 本来这把我们是铁输的牌，这时候假如门板pass，之后下家已经可以跑掉了。</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b087810ee025470b389dab6</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b087872ee025470b389db09</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b0878dcee025470b389db42</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b087929ee025470b389db61</t>
+  </si>
+  <si>
+    <t>圆圆5和圆圆6的第一个不同手在回合8， 农民JJJx， 圆圆5用222x接了， 圆圆6 pass。这一手pass之后的局面给圆圆5打也输掉了。用222x接下来之后的牌圆圆6也赢下来了，也是因为对方一个类似的失误赢的。</t>
+  </si>
+  <si>
+    <t>比较奇怪的地方在新版本对局的第17回合， 地主单张6， 两家农民都pass。</t>
+  </si>
+  <si>
+    <t>圆圆5和圆圆6的第一个不同手在回合5，地主下家单张4， 门板圆圆5顶了2， 门板圆圆6顶了A。从人的角度我倾向出A， 但是出2也很正常。顶了A之后的牌， 圆圆5也输掉了。</t>
+  </si>
+  <si>
+    <t>本轮比赛中， 对方地主49回合一对3是失误。 先出两个单张他就赢了</t>
+  </si>
+  <si>
+    <t>圆圆5和圆圆6的配牌不一样。</t>
+  </si>
+  <si>
+    <t>圆圆5：</t>
+  </si>
+  <si>
+    <t>345678，QQQ4 ,对5对K(拆了)对A对2，单张6J</t>
+  </si>
+  <si>
+    <t>圆圆6：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单张578J， QQQ3，456连对，对K对A对2 </t>
+  </si>
+  <si>
+    <t>圆圆6用第一种配牌也赢了。 圆圆5用第二种配牌也输了。</t>
+  </si>
+  <si>
+    <t>345678在圆圆5的估值是0.21， 在圆圆6的估值是-0.51， 单张7两者的估值都在-0.37左右。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
@@ -463,8 +661,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -779,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CC1D79-BE21-4250-B023-2E00F16F1CD9}">
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="B17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:N68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -806,78 +1007,52 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
       <c r="B2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J3" t="s">
         <v>6</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K3" t="s">
         <v>7</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L3" t="s">
         <v>8</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M3" t="s">
         <v>9</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>0.06</v>
-      </c>
-      <c r="F3">
-        <v>2.1549999999999998</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3">
-        <f>E3*B3+F3*(1-B3)</f>
-        <v>2.1549999999999998</v>
-      </c>
-      <c r="L3">
-        <f>E3*(1-B3)+F3*B3</f>
-        <v>0.06</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -885,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -894,52 +1069,86 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>2.2000000000000002</v>
+        <v>0.06</v>
       </c>
       <c r="F4">
-        <v>0.05</v>
+        <v>2.1549999999999998</v>
+      </c>
+      <c r="G4">
+        <v>0.06</v>
+      </c>
+      <c r="H4">
+        <v>2.1349999999999998</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>134</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K64" si="0">E4*B4+F4*(1-B4)</f>
-        <v>2.2000000000000002</v>
+        <f>E4*B4+F4*(1-B4)</f>
+        <v>2.1549999999999998</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L64" si="1">E4*(1-B4)+F4*B4</f>
-        <v>0.05</v>
+        <f>E4*(1-B4)+F4*B4</f>
+        <v>0.06</v>
+      </c>
+      <c r="M4">
+        <f>G4*B4+H4*(1-B4)</f>
+        <v>2.1349999999999998</v>
+      </c>
+      <c r="N4">
+        <f>G4*(1-B4) + H4*B4</f>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>2.2000000000000002</v>
       </c>
       <c r="F5">
-        <v>0.155</v>
+        <v>0.05</v>
+      </c>
+      <c r="G5">
+        <v>2.19</v>
+      </c>
+      <c r="H5">
+        <v>0.115</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>135</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K5:K65" si="0">E5*B5+F5*(1-B5)</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
-        <v>0.155</v>
+        <f t="shared" ref="L5:L65" si="1">E5*(1-B5)+F5*B5</f>
+        <v>0.05</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M67" si="2">G5*B5+H5*(1-B5)</f>
+        <v>2.19</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N67" si="3">G5*(1-B5) + H5*B5</f>
+        <v>0.115</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -947,7 +1156,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -956,52 +1165,80 @@
         <v>18</v>
       </c>
       <c r="E6">
-        <v>2.2599999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F6">
-        <v>0.14000000000000001</v>
+        <v>0.155</v>
+      </c>
+      <c r="G6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H6">
+        <v>0.16500000000000001</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>2.2599999999999998</v>
+        <v>0.155</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>0.16500000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7">
-        <v>2.2000000000000002</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="F7">
-        <v>0.08</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G7">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="H7">
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>0.08</v>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1009,7 +1246,7 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -1018,52 +1255,80 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>0.14000000000000001</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F8">
-        <v>2.125</v>
+        <v>0.08</v>
+      </c>
+      <c r="G8">
+        <v>2.21</v>
+      </c>
+      <c r="H8">
+        <v>0.115</v>
       </c>
       <c r="I8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>2.125</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>0.14000000000000001</v>
+        <v>0.08</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>2.21</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>0.115</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>2.19</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F9">
-        <v>1.4999999999999999E-2</v>
+        <v>2.125</v>
+      </c>
+      <c r="G9">
+        <v>0.15</v>
+      </c>
+      <c r="H9">
+        <v>2.12</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>2.19</v>
+        <v>2.125</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>1.4999999999999999E-2</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>2.12</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1071,7 +1336,7 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -1080,52 +1345,80 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>0.17</v>
+        <v>2.19</v>
       </c>
       <c r="F10">
-        <v>2.09</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G10">
+        <v>2.21</v>
+      </c>
+      <c r="H10">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>2.09</v>
+        <v>2.19</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>0.17</v>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>2.21</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>2.16</v>
+        <v>0.17</v>
       </c>
       <c r="F11">
-        <v>2.5000000000000001E-2</v>
+        <v>2.09</v>
+      </c>
+      <c r="G11">
+        <v>0.19</v>
+      </c>
+      <c r="H11">
+        <v>2.1</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>2.5000000000000001E-2</v>
+        <v>2.09</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>2.16</v>
+        <v>0.17</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>0.19</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1133,7 +1426,7 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -1147,47 +1440,75 @@
       <c r="F12">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="G12">
+        <v>2.16</v>
+      </c>
+      <c r="H12">
+        <v>3.5000000000000003E-2</v>
+      </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
         <v>2.16</v>
       </c>
-      <c r="L12">
-        <f t="shared" si="1"/>
-        <v>2.5000000000000001E-2</v>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>2.16</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="F13">
-        <v>0.14499999999999999</v>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G13">
+        <v>2.16</v>
+      </c>
+      <c r="H13">
+        <v>0.06</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>0.14499999999999999</v>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>2.16</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1195,7 +1516,7 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -1204,44 +1525,64 @@
         <v>27</v>
       </c>
       <c r="E14">
-        <v>0.19</v>
+        <v>2.17</v>
       </c>
       <c r="F14">
-        <v>2.1549999999999998</v>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="G14">
+        <v>2.17</v>
+      </c>
+      <c r="H14">
+        <v>0.14499999999999999</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>2.1549999999999998</v>
+        <v>2.17</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>0.19</v>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>2.17</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>0.14499999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="F15">
         <v>2.1549999999999998</v>
       </c>
+      <c r="G15">
+        <v>0.08</v>
+      </c>
+      <c r="H15">
+        <v>2.11</v>
+      </c>
       <c r="I15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
@@ -1249,7 +1590,15 @@
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>0.17</v>
+        <v>0.19</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>2.11</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>0.08</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1257,7 +1606,7 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1266,60 +1615,88 @@
         <v>29</v>
       </c>
       <c r="E16">
+        <v>0.17</v>
+      </c>
+      <c r="F16">
+        <v>2.1549999999999998</v>
+      </c>
+      <c r="G16">
+        <v>0.17</v>
+      </c>
+      <c r="H16">
+        <v>2.16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>2.1549999999999998</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>0.17</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>2.16</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17">
         <v>2.21</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>0.09</v>
       </c>
-      <c r="I16" t="s">
+      <c r="G17">
+        <v>0.15</v>
+      </c>
+      <c r="H17">
+        <v>2.125</v>
+      </c>
+      <c r="I17" t="s">
         <v>84</v>
       </c>
-      <c r="K16">
+      <c r="K17">
         <f t="shared" si="0"/>
         <v>2.21</v>
       </c>
-      <c r="L16">
+      <c r="L17">
         <f t="shared" si="1"/>
         <v>0.09</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="F17">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="I17" t="s">
-        <v>85</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="0"/>
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="1"/>
-        <v>2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>2.125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>8</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
@@ -1331,57 +1708,73 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="F18">
-        <v>0.09</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
         <v>2.2599999999999998</v>
       </c>
-      <c r="L18">
-        <f t="shared" si="1"/>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E19">
-        <v>0.16</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="F19">
-        <v>2.15</v>
+        <v>0.09</v>
       </c>
       <c r="I19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>0.16</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.09</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>9</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
@@ -1390,60 +1783,76 @@
         <v>33</v>
       </c>
       <c r="E20">
+        <v>0.16</v>
+      </c>
+      <c r="F20">
+        <v>2.15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>2.15</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21">
         <v>2.1800000000000002</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>0.14499999999999999</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I21" t="s">
         <v>88</v>
       </c>
-      <c r="K20">
+      <c r="K21">
         <f t="shared" si="0"/>
         <v>0.14499999999999999</v>
       </c>
-      <c r="L20">
+      <c r="L21">
         <f t="shared" si="1"/>
         <v>2.1800000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
-        <v>10</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21">
-        <v>0.17</v>
-      </c>
-      <c r="F21">
-        <v>2.1150000000000002</v>
-      </c>
-      <c r="I21" t="s">
-        <v>89</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="0"/>
-        <v>0.17</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="1"/>
-        <v>2.1150000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>10</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
@@ -1452,60 +1861,76 @@
         <v>37</v>
       </c>
       <c r="E22">
+        <v>0.17</v>
+      </c>
+      <c r="F22">
+        <v>2.1150000000000002</v>
+      </c>
+      <c r="I22" t="s">
+        <v>89</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>2.1150000000000002</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23">
         <v>0.24</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>2.165</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I23" t="s">
         <v>90</v>
       </c>
-      <c r="K22">
+      <c r="K23">
         <f t="shared" si="0"/>
         <v>2.165</v>
       </c>
-      <c r="L22">
+      <c r="L23">
         <f t="shared" si="1"/>
         <v>0.24</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23">
-        <v>11</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="F23">
-        <v>0.05</v>
-      </c>
-      <c r="I23" t="s">
-        <v>91</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="1"/>
-        <v>2.1800000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>11</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -1514,60 +1939,88 @@
         <v>29</v>
       </c>
       <c r="E24">
-        <v>2.2000000000000002</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="F24">
         <v>0.05</v>
       </c>
+      <c r="G24">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H24">
+        <v>0.05</v>
+      </c>
       <c r="I24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>0.05</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="N24">
+        <f t="shared" si="3"/>
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E25">
-        <v>0.19</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F25">
-        <v>2.1549999999999998</v>
+        <v>0.05</v>
+      </c>
+      <c r="G25">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H25">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="I25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>0.19</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>2.1549999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>0.05</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="3"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>12</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
         <v>30</v>
@@ -1576,60 +2029,88 @@
         <v>31</v>
       </c>
       <c r="E26">
+        <v>0.19</v>
+      </c>
+      <c r="F26">
+        <v>2.1549999999999998</v>
+      </c>
+      <c r="G26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H26">
+        <v>0.13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>93</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>0.19</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>2.1549999999999998</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="3"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27">
         <v>2.21</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <v>0.15</v>
       </c>
-      <c r="I26" t="s">
+      <c r="G27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H27">
+        <v>2.13</v>
+      </c>
+      <c r="I27" t="s">
         <v>94</v>
       </c>
-      <c r="K26">
+      <c r="K27">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="L26">
+      <c r="L27">
         <f t="shared" si="1"/>
         <v>2.21</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27">
-        <v>13</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="F27">
-        <v>0.06</v>
-      </c>
-      <c r="I27" t="s">
-        <v>95</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="0"/>
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="1"/>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27">
+        <f t="shared" si="2"/>
+        <v>2.13</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="3"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>13</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
@@ -1638,60 +2119,88 @@
         <v>39</v>
       </c>
       <c r="E28">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F28">
+        <v>0.06</v>
+      </c>
+      <c r="G28">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="H28">
+        <v>0.12</v>
+      </c>
+      <c r="I28" t="s">
+        <v>95</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="2"/>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="3"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29">
         <v>0.18</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>2.14</v>
       </c>
-      <c r="I28" t="s">
+      <c r="G29">
+        <v>0.18</v>
+      </c>
+      <c r="H29">
+        <v>2.125</v>
+      </c>
+      <c r="I29" t="s">
         <v>96</v>
       </c>
-      <c r="K28">
+      <c r="K29">
         <f t="shared" si="0"/>
         <v>2.14</v>
       </c>
-      <c r="L28">
+      <c r="L29">
         <f t="shared" si="1"/>
         <v>0.18</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29">
-        <v>14</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29">
-        <v>0.02</v>
-      </c>
-      <c r="F29">
-        <v>2.16</v>
-      </c>
-      <c r="I29" t="s">
-        <v>97</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="1"/>
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>2.125</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="3"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>14</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>30</v>
@@ -1700,29 +2209,43 @@
         <v>31</v>
       </c>
       <c r="E30">
-        <v>0.14000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="F30">
-        <v>2.25</v>
+        <v>2.16</v>
+      </c>
+      <c r="G30">
+        <v>0.05</v>
+      </c>
+      <c r="H30">
+        <v>2.165</v>
       </c>
       <c r="I30" t="s">
         <v>97</v>
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>2.25</v>
+        <v>0.02</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>2.16</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="3"/>
+        <v>2.165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
         <v>30</v>
@@ -1731,29 +2254,43 @@
         <v>31</v>
       </c>
       <c r="E31">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F31">
-        <v>2.16</v>
+        <v>2.25</v>
+      </c>
+      <c r="G31">
+        <v>0.11</v>
+      </c>
+      <c r="H31">
+        <v>2.0950000000000002</v>
       </c>
       <c r="I31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>0.18</v>
+        <v>2.25</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="2"/>
+        <v>2.0950000000000002</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="3"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32">
         <v>15</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
         <v>30</v>
@@ -1762,60 +2299,88 @@
         <v>31</v>
       </c>
       <c r="E32">
+        <v>0.18</v>
+      </c>
+      <c r="F32">
+        <v>2.16</v>
+      </c>
+      <c r="G32">
+        <v>0.16</v>
+      </c>
+      <c r="H32">
+        <v>2.12</v>
+      </c>
+      <c r="I32" t="s">
+        <v>98</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>2.16</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="2"/>
+        <v>0.16</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="3"/>
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33">
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33">
         <v>0.17</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>2.12</v>
       </c>
-      <c r="I32" t="s">
+      <c r="G33">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H33">
+        <v>2.1349999999999998</v>
+      </c>
+      <c r="I33" t="s">
         <v>99</v>
       </c>
-      <c r="K32">
+      <c r="K33">
         <f t="shared" si="0"/>
         <v>2.12</v>
       </c>
-      <c r="L32">
+      <c r="L33">
         <f t="shared" si="1"/>
         <v>0.17</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33">
-        <v>16</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33">
-        <v>2.19</v>
-      </c>
-      <c r="F33">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="I33" t="s">
-        <v>100</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="0"/>
-        <v>2.19</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33">
+        <f t="shared" si="2"/>
+        <v>2.1349999999999998</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="3"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34">
         <v>16</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
         <v>40</v>
@@ -1824,60 +2389,88 @@
         <v>41</v>
       </c>
       <c r="E34">
+        <v>2.19</v>
+      </c>
+      <c r="F34">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G34">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H34">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="I34" t="s">
+        <v>100</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>2.19</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="3"/>
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35">
+        <v>16</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35">
         <v>2.1800000000000002</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <v>0.08</v>
       </c>
-      <c r="I34" t="s">
+      <c r="G35">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H35">
+        <v>0.09</v>
+      </c>
+      <c r="I35" t="s">
         <v>101</v>
       </c>
-      <c r="K34">
+      <c r="K35">
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="L34">
+      <c r="L35">
         <f t="shared" si="1"/>
         <v>2.1800000000000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35">
-        <v>17</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35">
-        <v>2.19</v>
-      </c>
-      <c r="F35">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="I35" t="s">
-        <v>102</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="0"/>
-        <v>2.19</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="1"/>
-        <v>0.14499999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35">
+        <f t="shared" si="2"/>
+        <v>0.09</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="3"/>
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36">
         <v>17</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="s">
         <v>42</v>
@@ -1886,60 +2479,76 @@
         <v>43</v>
       </c>
       <c r="E36">
+        <v>2.19</v>
+      </c>
+      <c r="F36">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="I36" t="s">
+        <v>102</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>2.19</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37">
+        <v>17</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F36">
+      <c r="F37">
         <v>0.16</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I37" t="s">
         <v>103</v>
       </c>
-      <c r="K36">
+      <c r="K37">
         <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
-      <c r="L36">
+      <c r="L37">
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37">
-        <v>18</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37">
-        <v>0.15</v>
-      </c>
-      <c r="F37">
-        <v>2.165</v>
-      </c>
-      <c r="I37" t="s">
-        <v>104</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="0"/>
-        <v>2.165</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="1"/>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38">
         <v>18</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="s">
         <v>44</v>
@@ -1948,60 +2557,76 @@
         <v>45</v>
       </c>
       <c r="E38">
+        <v>0.15</v>
+      </c>
+      <c r="F38">
+        <v>2.165</v>
+      </c>
+      <c r="I38" t="s">
+        <v>104</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>2.165</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39">
+        <v>18</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F38">
+      <c r="F39">
         <v>0.15</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I39" t="s">
         <v>105</v>
       </c>
-      <c r="K38">
+      <c r="K39">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="L38">
+      <c r="L39">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39">
-        <v>19</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E39">
-        <v>2.16</v>
-      </c>
-      <c r="F39">
-        <v>0.21</v>
-      </c>
-      <c r="I39" t="s">
-        <v>106</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="0"/>
-        <v>0.21</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="1"/>
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40">
         <v>19</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="s">
         <v>46</v>
@@ -2010,60 +2635,76 @@
         <v>47</v>
       </c>
       <c r="E40">
-        <v>2.2200000000000002</v>
+        <v>2.16</v>
       </c>
       <c r="F40">
-        <v>0.215</v>
+        <v>0.21</v>
       </c>
       <c r="I40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
-        <v>2.2200000000000002</v>
+        <v>0.21</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
-        <v>0.215</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>2.16</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E41">
-        <v>0.18</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="F41">
-        <v>2.145</v>
+        <v>0.215</v>
       </c>
       <c r="I41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
-        <v>0.18</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
-        <v>2.145</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>0.215</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42">
         <v>20</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2072,60 +2713,76 @@
         <v>48</v>
       </c>
       <c r="E42">
+        <v>0.18</v>
+      </c>
+      <c r="F42">
+        <v>2.145</v>
+      </c>
+      <c r="I42" t="s">
+        <v>108</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="1"/>
+        <v>2.145</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43">
+        <v>20</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E43">
         <v>0.15</v>
       </c>
-      <c r="F42">
+      <c r="F43">
         <v>2.13</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I43" t="s">
         <v>109</v>
       </c>
-      <c r="K42">
+      <c r="K43">
         <f t="shared" si="0"/>
         <v>2.13</v>
       </c>
-      <c r="L42">
+      <c r="L43">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43">
-        <v>21</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43" t="s">
-        <v>50</v>
-      </c>
-      <c r="D43" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43">
-        <v>0.13</v>
-      </c>
-      <c r="F43">
-        <v>2.085</v>
-      </c>
-      <c r="I43" t="s">
-        <v>110</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="0"/>
-        <v>2.085</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="1"/>
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44">
         <v>21</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="s">
         <v>50</v>
@@ -2134,60 +2791,76 @@
         <v>51</v>
       </c>
       <c r="E44">
+        <v>0.13</v>
+      </c>
+      <c r="F44">
+        <v>2.085</v>
+      </c>
+      <c r="I44" t="s">
+        <v>110</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>2.085</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="1"/>
+        <v>0.13</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45">
+        <v>21</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45">
         <v>0.12</v>
       </c>
-      <c r="F44">
+      <c r="F45">
         <v>2.1749999999999998</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I45" t="s">
         <v>111</v>
       </c>
-      <c r="K44">
+      <c r="K45">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="L44">
+      <c r="L45">
         <f t="shared" si="1"/>
         <v>2.1749999999999998</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45">
-        <v>22</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45">
-        <v>0.1</v>
-      </c>
-      <c r="F45">
-        <v>2.125</v>
-      </c>
-      <c r="I45" t="s">
-        <v>112</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="0"/>
-        <v>2.125</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46">
         <v>22</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="s">
         <v>52</v>
@@ -2196,60 +2869,76 @@
         <v>53</v>
       </c>
       <c r="E46">
+        <v>0.1</v>
+      </c>
+      <c r="F46">
+        <v>2.125</v>
+      </c>
+      <c r="I46" t="s">
+        <v>112</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="0"/>
+        <v>2.125</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47">
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47">
         <v>0.17</v>
       </c>
-      <c r="F46">
+      <c r="F47">
         <v>2.15</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I47" t="s">
         <v>113</v>
       </c>
-      <c r="K46">
+      <c r="K47">
         <f t="shared" si="0"/>
         <v>0.17</v>
       </c>
-      <c r="L46">
+      <c r="L47">
         <f t="shared" si="1"/>
         <v>2.15</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47">
-        <v>23</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47">
-        <v>2.17</v>
-      </c>
-      <c r="F47">
-        <v>0.06</v>
-      </c>
-      <c r="I47" t="s">
-        <v>114</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="0"/>
-        <v>0.06</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="1"/>
-        <v>2.17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48">
         <v>23</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="s">
         <v>54</v>
@@ -2258,60 +2947,76 @@
         <v>55</v>
       </c>
       <c r="E48">
-        <v>0.08</v>
+        <v>2.17</v>
       </c>
       <c r="F48">
-        <v>2.14</v>
+        <v>0.06</v>
       </c>
       <c r="I48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>2.17</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E49">
-        <v>0.14000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="F49">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="I49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>2.14</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50">
         <v>24</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="s">
         <v>56</v>
@@ -2320,60 +3025,76 @@
         <v>57</v>
       </c>
       <c r="E50">
-        <v>0.19</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F50">
         <v>2.16</v>
       </c>
       <c r="I50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="1"/>
         <v>2.16</v>
       </c>
-      <c r="L50">
-        <f t="shared" si="1"/>
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E51">
         <v>0.19</v>
       </c>
       <c r="F51">
-        <v>2.1549999999999998</v>
+        <v>2.16</v>
       </c>
       <c r="I51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
+        <v>2.16</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="1"/>
         <v>0.19</v>
       </c>
-      <c r="L51">
-        <f t="shared" si="1"/>
-        <v>2.1549999999999998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52">
         <v>25</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="s">
         <v>58</v>
@@ -2382,29 +3103,37 @@
         <v>59</v>
       </c>
       <c r="E52">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="F52">
-        <v>2.145</v>
+        <v>2.1549999999999998</v>
       </c>
       <c r="I52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
-        <v>2.145</v>
+        <v>0.19</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>2.1549999999999998</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="s">
         <v>58</v>
@@ -2413,29 +3142,37 @@
         <v>59</v>
       </c>
       <c r="E53">
-        <v>2.2000000000000002</v>
+        <v>0.11</v>
       </c>
       <c r="F53">
-        <v>0.12</v>
+        <v>2.145</v>
       </c>
       <c r="I53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>2.145</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>0.11</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54">
         <v>26</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="s">
         <v>58</v>
@@ -2444,399 +3181,1503 @@
         <v>59</v>
       </c>
       <c r="E54">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F54">
         <v>0.12</v>
       </c>
-      <c r="F54">
-        <v>2.0950000000000002</v>
-      </c>
       <c r="I54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
-        <v>2.0950000000000002</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E55">
         <v>0.12</v>
       </c>
       <c r="F55">
-        <v>2.1150000000000002</v>
+        <v>2.0950000000000002</v>
       </c>
       <c r="I55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
+        <v>2.0950000000000002</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
-      <c r="L55">
-        <f t="shared" si="1"/>
-        <v>2.1150000000000002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56">
         <v>27</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="s">
         <v>60</v>
       </c>
       <c r="D56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E56">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="F56">
-        <v>2.1549999999999998</v>
+        <v>2.1150000000000002</v>
       </c>
       <c r="I56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
-        <v>2.1549999999999998</v>
+        <v>0.12</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>2.1150000000000002</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="s">
         <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E57">
-        <v>2.2000000000000002</v>
+        <v>0.16</v>
       </c>
       <c r="F57">
-        <v>0.19500000000000001</v>
+        <v>2.1549999999999998</v>
       </c>
       <c r="I57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
-        <v>2.2000000000000002</v>
+        <v>2.1549999999999998</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
-        <v>0.19500000000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>0.16</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58">
         <v>28</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="s">
         <v>60</v>
       </c>
       <c r="D58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E58">
-        <v>2.2200000000000002</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F58">
-        <v>0.14000000000000001</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="I58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
-        <v>2.2200000000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="s">
         <v>60</v>
       </c>
       <c r="D59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E59">
-        <v>0.15</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="F59">
-        <v>2.08</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
-        <v>2.08</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60">
         <v>29</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="s">
         <v>60</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E60">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="F60">
-        <v>2.145</v>
+        <v>2.08</v>
       </c>
       <c r="I60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
-        <v>2.145</v>
+        <v>0.15</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <v>2.08</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="s">
         <v>60</v>
       </c>
       <c r="D61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E61">
-        <v>0.31</v>
+        <v>0.19</v>
       </c>
       <c r="F61">
-        <v>2.14</v>
+        <v>2.145</v>
       </c>
       <c r="I61" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="K61">
         <f t="shared" si="0"/>
-        <v>0.31</v>
+        <v>2.145</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>0.19</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62">
         <v>30</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="s">
         <v>60</v>
       </c>
       <c r="D62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E62">
-        <v>0.28999999999999998</v>
+        <v>0.31</v>
       </c>
       <c r="F62">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="I62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
-        <v>2.13</v>
+        <v>0.31</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+        <v>2.14</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="s">
         <v>60</v>
       </c>
       <c r="D63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E63">
-        <v>2.19</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F63">
-        <v>2.5000000000000001E-2</v>
+        <v>2.13</v>
       </c>
       <c r="I63" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K63">
         <f t="shared" si="0"/>
-        <v>2.19</v>
+        <v>2.13</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64">
         <v>31</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="s">
         <v>60</v>
       </c>
       <c r="D64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E64">
-        <v>2.1800000000000002</v>
+        <v>2.19</v>
       </c>
       <c r="F64">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I64" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
-        <v>0.02</v>
+        <v>2.19</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
-        <v>2.1800000000000002</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="s">
         <v>60</v>
       </c>
       <c r="D65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E65">
-        <v>-1</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="F65">
-        <v>3</v>
+        <v>0.02</v>
       </c>
       <c r="I65" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K65">
-        <f>E65*B65+F65*(1-B65)</f>
-        <v>-1</v>
+        <f t="shared" si="0"/>
+        <v>0.02</v>
       </c>
       <c r="L65">
-        <f>E65*(1-B65)+F65*B65</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+        <f t="shared" si="1"/>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66">
         <v>32</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="s">
         <v>60</v>
       </c>
       <c r="D66" t="s">
+        <v>71</v>
+      </c>
+      <c r="E66">
+        <v>-1</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="I66" t="s">
+        <v>129</v>
+      </c>
+      <c r="K66">
+        <f>E66*B66+F66*(1-B66)</f>
+        <v>-1</v>
+      </c>
+      <c r="L66">
+        <f>E66*(1-B66)+F66*B66</f>
+        <v>3</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67">
+        <v>32</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" t="s">
         <v>72</v>
       </c>
-      <c r="E66">
+      <c r="E67">
         <v>0.19</v>
       </c>
-      <c r="F66">
+      <c r="F67">
         <v>2.12</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I67" t="s">
         <v>128</v>
       </c>
-      <c r="K66">
-        <f t="shared" ref="K66" si="2">E66*B66+F66*(1-B66)</f>
+      <c r="K67">
+        <f t="shared" ref="K67" si="4">E67*B67+F67*(1-B67)</f>
         <v>2.12</v>
       </c>
-      <c r="L66">
-        <f t="shared" ref="L66" si="3">E66*(1-B66)+F66*B66</f>
+      <c r="L67">
+        <f t="shared" ref="L67" si="5">E67*(1-B67)+F67*B67</f>
         <v>0.19</v>
       </c>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="K67">
-        <f>SUM(K3:K66)</f>
+      <c r="M67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="K68">
+        <f>SUM(K4:K67)</f>
         <v>82.664999999999992</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC6CCF1-E8A4-4358-90AF-C5A4B9D7C7F0}">
+  <dimension ref="A1:N32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="57.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4">
+        <v>2.41</v>
+      </c>
+      <c r="F4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G4">
+        <v>2.41</v>
+      </c>
+      <c r="H4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4">
+        <f>E4*B4+F4*(1-B4)</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L4">
+        <f>E4*(1-B4)+F4*B4</f>
+        <v>2.41</v>
+      </c>
+      <c r="M4">
+        <f>G4*B4+H4*(1-B4)</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="N4">
+        <f>G4*(1-B4) + H4*B4</f>
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.1150000000000002</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.36</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" ref="K5:K17" si="0">E5*B5+F5*(1-B5)</f>
+        <v>0.17</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" ref="L5:L17" si="1">E5*(1-B5)+F5*B5</f>
+        <v>2.1150000000000002</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" ref="M5:M17" si="2">G5*B5+H5*(1-B5)</f>
+        <v>2.36</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" ref="N5:N17" si="3">G5*(1-B5) + H5*B5</f>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6">
+        <v>2.17</v>
+      </c>
+      <c r="F6">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.17</v>
+      </c>
+      <c r="H6">
+        <v>0.06</v>
+      </c>
+      <c r="I6" t="s">
+        <v>155</v>
+      </c>
+      <c r="J6" t="s">
+        <v>168</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>2.17</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>2.17</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="3" customFormat="1">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8">
+        <v>2.17</v>
+      </c>
+      <c r="F8">
+        <v>0.125</v>
+      </c>
+      <c r="G8">
+        <v>2.17</v>
+      </c>
+      <c r="H8">
+        <v>0.125</v>
+      </c>
+      <c r="I8" t="s">
+        <v>157</v>
+      </c>
+      <c r="J8" t="s">
+        <v>170</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>2.17</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>2.17</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2.165</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H9" s="2">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="0"/>
+        <v>2.165</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="2"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="3"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10">
+        <v>2.21</v>
+      </c>
+      <c r="F10">
+        <v>0.12</v>
+      </c>
+      <c r="G10">
+        <v>2.21</v>
+      </c>
+      <c r="H10">
+        <v>0.13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>159</v>
+      </c>
+      <c r="J10" t="s">
+        <v>172</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>2.21</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>2.21</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11">
+        <v>0.17</v>
+      </c>
+      <c r="F11">
+        <v>2.1349999999999998</v>
+      </c>
+      <c r="G11">
+        <v>0.18</v>
+      </c>
+      <c r="H11">
+        <v>2.16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>160</v>
+      </c>
+      <c r="J11" t="s">
+        <v>173</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>2.1349999999999998</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>0.17</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>2.16</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1">
+      <c r="A12" s="2">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2.21</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2.145</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="0"/>
+        <v>2.21</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.09</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="3"/>
+        <v>2.145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13">
+        <v>0.2</v>
+      </c>
+      <c r="F13">
+        <v>2.125</v>
+      </c>
+      <c r="G13">
+        <v>0.16</v>
+      </c>
+      <c r="H13">
+        <v>2.14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>162</v>
+      </c>
+      <c r="J13" t="s">
+        <v>177</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>2.125</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>2.14</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14">
+        <v>0.16</v>
+      </c>
+      <c r="F14">
+        <v>2.13</v>
+      </c>
+      <c r="G14">
+        <v>0.15</v>
+      </c>
+      <c r="H14">
+        <v>2.1150000000000002</v>
+      </c>
+      <c r="I14" t="s">
+        <v>163</v>
+      </c>
+      <c r="J14" t="s">
+        <v>178</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>2.13</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>0.16</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>2.1150000000000002</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15">
+        <v>2.19</v>
+      </c>
+      <c r="F15">
+        <v>0.115</v>
+      </c>
+      <c r="G15">
+        <v>2.19</v>
+      </c>
+      <c r="H15">
+        <v>0.115</v>
+      </c>
+      <c r="I15" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" t="s">
+        <v>179</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>2.19</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>0.115</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>2.19</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="2" customFormat="1">
+      <c r="A16" s="2">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F16" s="2">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2.09</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="1"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="3"/>
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F17">
+        <v>0.125</v>
+      </c>
+      <c r="G17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H17">
+        <v>0.11</v>
+      </c>
+      <c r="I17" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>0.11</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="K18">
+        <f>SUM(K4:K17)</f>
+        <v>24.175000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="2" customFormat="1">
+      <c r="A20" s="2">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2.165</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H20" s="2">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" ref="K20" si="4">E20*B20+F20*(1-B20)</f>
+        <v>2.165</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" ref="L20" si="5">E20*(1-B20)+F20*B20</f>
+        <v>0.18</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" ref="M20" si="6">G20*B20+H20*(1-B20)</f>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="N20" s="2">
+        <f t="shared" ref="N20" si="7">G20*(1-B20) + H20*B20</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="3" customFormat="1">
+      <c r="A21" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="2" customFormat="1">
+      <c r="A24" s="2">
+        <v>5</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2.21</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2.145</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" ref="K24" si="8">E24*B24+F24*(1-B24)</f>
+        <v>2.21</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" ref="L24" si="9">E24*(1-B24)+F24*B24</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" ref="M24" si="10">G24*B24+H24*(1-B24)</f>
+        <v>0.09</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" ref="N24" si="11">G24*(1-B24) + H24*B24</f>
+        <v>2.145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="2" customFormat="1">
+      <c r="A27" s="2">
+        <v>7</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F27" s="2">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2.09</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" ref="K27" si="12">E27*B27+F27*(1-B27)</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" ref="L27" si="13">E27*(1-B27)+F27*B27</f>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" ref="M27" si="14">G27*B27+H27*(1-B27)</f>
+        <v>0.04</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" ref="N27" si="15">G27*(1-B27) + H27*B27</f>
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/对局记录.xlsx
+++ b/对局记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Documents\GitHub\doudizhu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B14026A-82DA-4568-A5AD-BB8D691D91A8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D38311C-166E-477B-9BB3-4557414A4A9C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22290" windowHeight="17115" activeTab="1" xr2:uid="{81049EFF-0B4E-46C3-ADBE-E8CD496518EE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22290" windowHeight="17115" xr2:uid="{81049EFF-0B4E-46C3-ADBE-E8CD496518EE}"/>
   </bookViews>
   <sheets>
     <sheet name="积分赛1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="188">
   <si>
     <t>轮次</t>
   </si>
@@ -214,39 +214,6 @@
     <t>汤姆孙小明 12</t>
   </si>
   <si>
-    <t>汤姆孙小明 13</t>
-  </si>
-  <si>
-    <t>汤姆孙小明 14</t>
-  </si>
-  <si>
-    <t>汤姆孙小明 15</t>
-  </si>
-  <si>
-    <t>汤姆孙小明 16</t>
-  </si>
-  <si>
-    <t>汤姆孙小明 17</t>
-  </si>
-  <si>
-    <t>汤姆孙小明 18</t>
-  </si>
-  <si>
-    <t>汤姆孙小明 19</t>
-  </si>
-  <si>
-    <t>汤姆孙小明 20</t>
-  </si>
-  <si>
-    <t>汤姆孙小明 21</t>
-  </si>
-  <si>
-    <t>汤姆孙小明 22</t>
-  </si>
-  <si>
-    <t>汤姆孙小明 23</t>
-  </si>
-  <si>
     <t>https://www.botzone.org/match/5b018f20765c7d10b660e1d1</t>
   </si>
   <si>
@@ -602,13 +569,34 @@
   </si>
   <si>
     <t>345678在圆圆5的估值是0.21， 在圆圆6的估值是-0.51， 单张7两者的估值都在-0.37左右。</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b088903ee025470b389ece2</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b08895bee025470b389ed01</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b0889aaee025470b389ed20</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b088a22ee025470b389ed25</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b088a73ee025470b389ed5e</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b088b13ee025470b389edb1</t>
+  </si>
+  <si>
+    <t>https://www.botzone.org/match/5b088b86ee025470b389edea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,6 +628,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -661,11 +657,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -982,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CC1D79-BE21-4250-B023-2E00F16F1CD9}">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView topLeftCell="B17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:N68"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -993,7 +990,7 @@
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="58.28515625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="58.28515625" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
     <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1008,7 +1005,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="B2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1084,7 +1081,7 @@
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="K4">
         <f>E4*B4+F4*(1-B4)</f>
@@ -1132,7 +1129,7 @@
         <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="K5">
         <f t="shared" ref="K5:K65" si="0">E5*B5+F5*(1-B5)</f>
@@ -1177,7 +1174,7 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
@@ -1222,7 +1219,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
@@ -1267,7 +1264,7 @@
         <v>0.115</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
@@ -1312,7 +1309,7 @@
         <v>2.12</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
@@ -1357,7 +1354,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
@@ -1402,7 +1399,7 @@
         <v>2.1</v>
       </c>
       <c r="I11" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
@@ -1447,7 +1444,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="I12" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
@@ -1492,7 +1489,7 @@
         <v>0.06</v>
       </c>
       <c r="I13" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
@@ -1537,7 +1534,7 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
@@ -1582,7 +1579,7 @@
         <v>2.11</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
@@ -1627,7 +1624,7 @@
         <v>2.16</v>
       </c>
       <c r="I16" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
@@ -1672,7 +1669,7 @@
         <v>2.125</v>
       </c>
       <c r="I17" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
@@ -1711,7 +1708,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="I18" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
@@ -1750,7 +1747,7 @@
         <v>0.09</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
@@ -1789,7 +1786,7 @@
         <v>2.15</v>
       </c>
       <c r="I20" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
@@ -1828,7 +1825,7 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="I21" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
@@ -1867,7 +1864,7 @@
         <v>2.1150000000000002</v>
       </c>
       <c r="I22" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
@@ -1906,7 +1903,7 @@
         <v>2.165</v>
       </c>
       <c r="I23" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
@@ -1951,7 +1948,7 @@
         <v>0.05</v>
       </c>
       <c r="I24" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
@@ -1996,7 +1993,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="I25" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K25">
         <f t="shared" si="0"/>
@@ -2041,7 +2038,7 @@
         <v>0.13</v>
       </c>
       <c r="I26" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
@@ -2086,7 +2083,7 @@
         <v>2.13</v>
       </c>
       <c r="I27" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K27">
         <f t="shared" si="0"/>
@@ -2131,7 +2128,7 @@
         <v>0.12</v>
       </c>
       <c r="I28" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="K28">
         <f t="shared" si="0"/>
@@ -2176,7 +2173,7 @@
         <v>2.125</v>
       </c>
       <c r="I29" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="K29">
         <f t="shared" si="0"/>
@@ -2221,7 +2218,7 @@
         <v>2.165</v>
       </c>
       <c r="I30" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="K30">
         <f t="shared" si="0"/>
@@ -2266,7 +2263,7 @@
         <v>2.0950000000000002</v>
       </c>
       <c r="I31" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
@@ -2311,7 +2308,7 @@
         <v>2.12</v>
       </c>
       <c r="I32" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K32">
         <f t="shared" si="0"/>
@@ -2356,7 +2353,7 @@
         <v>2.1349999999999998</v>
       </c>
       <c r="I33" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="K33">
         <f t="shared" si="0"/>
@@ -2401,7 +2398,7 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="I34" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="K34">
         <f t="shared" si="0"/>
@@ -2446,7 +2443,7 @@
         <v>0.09</v>
       </c>
       <c r="I35" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="K35">
         <f t="shared" si="0"/>
@@ -2485,7 +2482,7 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="I36" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="K36">
         <f t="shared" si="0"/>
@@ -2524,7 +2521,7 @@
         <v>0.16</v>
       </c>
       <c r="I37" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="K37">
         <f t="shared" si="0"/>
@@ -2563,7 +2560,7 @@
         <v>2.165</v>
       </c>
       <c r="I38" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="K38">
         <f t="shared" si="0"/>
@@ -2602,7 +2599,7 @@
         <v>0.15</v>
       </c>
       <c r="I39" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="K39">
         <f t="shared" si="0"/>
@@ -2641,7 +2638,7 @@
         <v>0.21</v>
       </c>
       <c r="I40" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="K40">
         <f t="shared" si="0"/>
@@ -2680,7 +2677,7 @@
         <v>0.215</v>
       </c>
       <c r="I41" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="K41">
         <f t="shared" si="0"/>
@@ -2719,7 +2716,7 @@
         <v>2.145</v>
       </c>
       <c r="I42" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="K42">
         <f t="shared" si="0"/>
@@ -2758,7 +2755,7 @@
         <v>2.13</v>
       </c>
       <c r="I43" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="K43">
         <f t="shared" si="0"/>
@@ -2797,7 +2794,7 @@
         <v>2.085</v>
       </c>
       <c r="I44" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="K44">
         <f t="shared" si="0"/>
@@ -2836,7 +2833,7 @@
         <v>2.1749999999999998</v>
       </c>
       <c r="I45" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="K45">
         <f t="shared" si="0"/>
@@ -2875,7 +2872,7 @@
         <v>2.125</v>
       </c>
       <c r="I46" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="K46">
         <f t="shared" si="0"/>
@@ -2914,7 +2911,7 @@
         <v>2.15</v>
       </c>
       <c r="I47" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="K47">
         <f t="shared" si="0"/>
@@ -2953,7 +2950,7 @@
         <v>0.06</v>
       </c>
       <c r="I48" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="K48">
         <f t="shared" si="0"/>
@@ -2992,7 +2989,7 @@
         <v>2.14</v>
       </c>
       <c r="I49" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="K49">
         <f t="shared" si="0"/>
@@ -3031,7 +3028,7 @@
         <v>2.16</v>
       </c>
       <c r="I50" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="K50">
         <f t="shared" si="0"/>
@@ -3070,7 +3067,7 @@
         <v>2.16</v>
       </c>
       <c r="I51" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="K51">
         <f t="shared" si="0"/>
@@ -3109,7 +3106,7 @@
         <v>2.1549999999999998</v>
       </c>
       <c r="I52" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="K52">
         <f t="shared" si="0"/>
@@ -3148,7 +3145,7 @@
         <v>2.145</v>
       </c>
       <c r="I53" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K53">
         <f t="shared" si="0"/>
@@ -3187,7 +3184,7 @@
         <v>0.12</v>
       </c>
       <c r="I54" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="K54">
         <f t="shared" si="0"/>
@@ -3226,7 +3223,7 @@
         <v>2.0950000000000002</v>
       </c>
       <c r="I55" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="K55">
         <f t="shared" si="0"/>
@@ -3265,7 +3262,7 @@
         <v>2.1150000000000002</v>
       </c>
       <c r="I56" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K56">
         <f t="shared" si="0"/>
@@ -3295,7 +3292,7 @@
         <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E57">
         <v>0.16</v>
@@ -3304,7 +3301,7 @@
         <v>2.1549999999999998</v>
       </c>
       <c r="I57" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K57">
         <f t="shared" si="0"/>
@@ -3334,7 +3331,7 @@
         <v>60</v>
       </c>
       <c r="D58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E58">
         <v>2.2000000000000002</v>
@@ -3343,7 +3340,7 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="I58" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="K58">
         <f t="shared" si="0"/>
@@ -3373,7 +3370,7 @@
         <v>60</v>
       </c>
       <c r="D59" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E59">
         <v>2.2200000000000002</v>
@@ -3382,7 +3379,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="I59" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="K59">
         <f t="shared" si="0"/>
@@ -3412,7 +3409,7 @@
         <v>60</v>
       </c>
       <c r="D60" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E60">
         <v>0.15</v>
@@ -3421,7 +3418,7 @@
         <v>2.08</v>
       </c>
       <c r="I60" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="K60">
         <f t="shared" si="0"/>
@@ -3440,43 +3437,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
-      <c r="A61">
+    <row r="61" spans="1:14" s="4" customFormat="1">
+      <c r="A61" s="4">
         <v>29</v>
       </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B61" s="4">
+        <v>0</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D61" t="s">
-        <v>66</v>
-      </c>
-      <c r="E61">
+      <c r="D61" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="4">
         <v>0.19</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="4">
         <v>2.145</v>
       </c>
-      <c r="I61" t="s">
-        <v>127</v>
-      </c>
-      <c r="K61">
+      <c r="G61" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="K61" s="4">
         <f t="shared" si="0"/>
         <v>2.145</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="4">
         <f t="shared" si="1"/>
         <v>0.19</v>
       </c>
-      <c r="M61">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="M61" s="4">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="N61" s="4">
+        <f t="shared" si="3"/>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3490,7 +3496,7 @@
         <v>60</v>
       </c>
       <c r="D62" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E62">
         <v>0.31</v>
@@ -3498,8 +3504,17 @@
       <c r="F62">
         <v>2.14</v>
       </c>
+      <c r="G62">
+        <v>0.19</v>
+      </c>
+      <c r="H62">
+        <v>2.16</v>
+      </c>
       <c r="I62" t="s">
-        <v>133</v>
+        <v>122</v>
+      </c>
+      <c r="J62" t="s">
+        <v>186</v>
       </c>
       <c r="K62">
         <f t="shared" si="0"/>
@@ -3511,50 +3526,59 @@
       </c>
       <c r="M62">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="N62">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" s="4" customFormat="1">
+      <c r="A63" s="4">
         <v>30</v>
       </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B63" s="4">
+        <v>0</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D63" t="s">
-        <v>68</v>
-      </c>
-      <c r="E63">
+      <c r="D63" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" s="4">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="4">
         <v>2.13</v>
       </c>
-      <c r="I63" t="s">
-        <v>132</v>
-      </c>
-      <c r="K63">
+      <c r="G63" s="4">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H63" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="K63" s="4">
         <f t="shared" si="0"/>
         <v>2.13</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="4">
         <f t="shared" si="1"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="M63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="M63" s="4">
+        <f t="shared" si="2"/>
+        <v>0.01</v>
+      </c>
+      <c r="N63" s="4">
+        <f t="shared" si="3"/>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3568,7 +3592,7 @@
         <v>60</v>
       </c>
       <c r="D64" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E64">
         <v>2.19</v>
@@ -3576,8 +3600,17 @@
       <c r="F64">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="G64">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H64">
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="I64" t="s">
-        <v>131</v>
+        <v>120</v>
+      </c>
+      <c r="J64" t="s">
+        <v>184</v>
       </c>
       <c r="K64">
         <f t="shared" si="0"/>
@@ -3589,50 +3622,59 @@
       </c>
       <c r="M64">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N64">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="1" customFormat="1">
+      <c r="A65" s="1">
         <v>31</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D65" t="s">
-        <v>70</v>
-      </c>
-      <c r="E65">
+      <c r="D65" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E65" s="1">
         <v>2.1800000000000002</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="1">
         <v>0.02</v>
       </c>
-      <c r="I65" t="s">
-        <v>130</v>
-      </c>
-      <c r="K65">
+      <c r="G65" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="H65" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K65" s="1">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="1">
         <f t="shared" si="1"/>
         <v>2.1800000000000002</v>
       </c>
-      <c r="M65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="M65" s="1">
+        <f t="shared" si="2"/>
+        <v>2.15</v>
+      </c>
+      <c r="N65" s="1">
+        <f t="shared" si="3"/>
+        <v>0.17</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3646,7 +3688,7 @@
         <v>60</v>
       </c>
       <c r="D66" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E66">
         <v>-1</v>
@@ -3654,8 +3696,17 @@
       <c r="F66">
         <v>3</v>
       </c>
+      <c r="G66">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="H66">
+        <v>8.5000000000000006E-2</v>
+      </c>
       <c r="I66" t="s">
-        <v>129</v>
+        <v>118</v>
+      </c>
+      <c r="J66" t="s">
+        <v>182</v>
       </c>
       <c r="K66">
         <f>E66*B66+F66*(1-B66)</f>
@@ -3667,50 +3718,59 @@
       </c>
       <c r="M66">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="N66">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" s="1" customFormat="1">
+      <c r="A67" s="1">
         <v>32</v>
       </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B67" s="1">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D67" t="s">
-        <v>72</v>
-      </c>
-      <c r="E67">
+      <c r="D67" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E67" s="1">
         <v>0.19</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="1">
         <v>2.12</v>
       </c>
-      <c r="I67" t="s">
-        <v>128</v>
-      </c>
-      <c r="K67">
+      <c r="G67" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H67" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K67" s="1">
         <f t="shared" ref="K67" si="4">E67*B67+F67*(1-B67)</f>
         <v>2.12</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="1">
         <f t="shared" ref="L67" si="5">E67*(1-B67)+F67*B67</f>
         <v>0.19</v>
       </c>
-      <c r="M67">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="M67" s="1">
+        <f t="shared" si="2"/>
+        <v>2.15</v>
+      </c>
+      <c r="N67" s="1">
+        <f t="shared" si="3"/>
+        <v>0.19</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3729,7 +3789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC6CCF1-E8A4-4358-90AF-C5A4B9D7C7F0}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -3742,7 +3802,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
         <v>35</v>
@@ -3750,10 +3810,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3808,10 +3868,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E4">
         <v>2.41</v>
@@ -3826,10 +3886,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="I4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="J4" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="K4">
         <f>E4*B4+F4*(1-B4)</f>
@@ -3856,10 +3916,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E5" s="1">
         <v>0.17</v>
@@ -3874,10 +3934,10 @@
         <v>0.09</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" ref="K5:K17" si="0">E5*B5+F5*(1-B5)</f>
@@ -3904,10 +3964,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E6">
         <v>2.17</v>
@@ -3922,10 +3982,10 @@
         <v>0.06</v>
       </c>
       <c r="I6" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="J6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
@@ -3952,10 +4012,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E7" s="3">
         <v>0.1</v>
@@ -3970,10 +4030,10 @@
         <v>2.1</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="0"/>
@@ -4000,10 +4060,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E8">
         <v>2.17</v>
@@ -4018,10 +4078,10 @@
         <v>0.125</v>
       </c>
       <c r="I8" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="J8" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
@@ -4048,10 +4108,10 @@
         <v>0</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2">
         <v>0.18</v>
@@ -4066,10 +4126,10 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="0"/>
@@ -4096,10 +4156,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E10">
         <v>2.21</v>
@@ -4114,10 +4174,10 @@
         <v>0.13</v>
       </c>
       <c r="I10" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="J10" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
@@ -4144,10 +4204,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E11">
         <v>0.17</v>
@@ -4162,10 +4222,10 @@
         <v>2.16</v>
       </c>
       <c r="I11" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="J11" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
@@ -4192,10 +4252,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E12" s="2">
         <v>2.21</v>
@@ -4210,10 +4270,10 @@
         <v>2.145</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="0"/>
@@ -4240,10 +4300,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E13">
         <v>0.2</v>
@@ -4258,10 +4318,10 @@
         <v>2.14</v>
       </c>
       <c r="I13" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="J13" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
@@ -4288,10 +4348,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D14" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E14">
         <v>0.16</v>
@@ -4306,10 +4366,10 @@
         <v>2.1150000000000002</v>
       </c>
       <c r="I14" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="J14" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
@@ -4336,10 +4396,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E15">
         <v>2.19</v>
@@ -4354,10 +4414,10 @@
         <v>0.115</v>
       </c>
       <c r="I15" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="J15" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
@@ -4387,7 +4447,7 @@
         <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E16" s="2">
         <v>2.2000000000000002</v>
@@ -4402,10 +4462,10 @@
         <v>2.09</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="0"/>
@@ -4435,7 +4495,7 @@
         <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E17">
         <v>2.2000000000000002</v>
@@ -4450,7 +4510,7 @@
         <v>0.11</v>
       </c>
       <c r="I17" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
@@ -4477,7 +4537,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="2" customFormat="1">
@@ -4488,10 +4548,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E20" s="2">
         <v>0.18</v>
@@ -4506,10 +4566,10 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" ref="K20" si="4">E20*B20+F20*(1-B20)</f>
@@ -4530,17 +4590,17 @@
     </row>
     <row r="21" spans="1:14" s="3" customFormat="1">
       <c r="A21" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="2" customFormat="1">
@@ -4551,10 +4611,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E24" s="2">
         <v>2.21</v>
@@ -4569,10 +4629,10 @@
         <v>2.145</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" ref="K24" si="8">E24*B24+F24*(1-B24)</f>
@@ -4593,12 +4653,12 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="2" customFormat="1">
@@ -4612,7 +4672,7 @@
         <v>44</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E27" s="2">
         <v>2.2000000000000002</v>
@@ -4627,10 +4687,10 @@
         <v>2.09</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="K27" s="2">
         <f t="shared" ref="K27" si="12">E27*B27+F27*(1-B27)</f>
@@ -4651,33 +4711,33 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/对局记录.xlsx
+++ b/对局记录.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="259">
   <si>
     <r>
       <rPr>
@@ -854,6 +854,88 @@
     <t xml:space="preserve">https://www.botzone.org/match/5b08d279ee025470b38a143b</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">回合，拆对子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">有点奇怪。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">pass</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">或者接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">应该都赢了。</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">逐梦逐梦逐梦演艺圈圈圈圈圈圈圈圈圈圈</t>
   </si>
   <si>
@@ -1099,6 +1181,28 @@
     <t xml:space="preserve">https://www.botzone.org/match/5b08cdc7ee025470b38a1131</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF70AD47"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">回合过有问题，估值迷之高不知道为啥</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.botzone.org/match/5b01a5e4765c7d10b6613c5a</t>
   </si>
   <si>
@@ -1220,6 +1324,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.botzone.org/match/5b08ca4bee025470b38a0eac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">起手三联对如果接了就赢了，已测试</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.botzone.org/match/5b01aa3e765c7d10b6614cab</t>
@@ -3179,10 +3286,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I29" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M45" activeCellId="0" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5135,7 +5242,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" s="2" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
         <v>20</v>
       </c>
@@ -5182,6 +5289,9 @@
         <f aca="false">G43*(1-B43) + H43*B43</f>
         <v>2.19</v>
       </c>
+      <c r="O43" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
@@ -5191,10 +5301,10 @@
         <v>0</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>0.13</v>
@@ -5209,10 +5319,10 @@
         <v>2.105</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K44" s="0" t="n">
         <f aca="false">E44*B44+F44*(1-B44)</f>
@@ -5239,10 +5349,10 @@
         <v>1</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>0.12</v>
@@ -5257,10 +5367,10 @@
         <v>2.175</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K45" s="0" t="n">
         <f aca="false">E45*B45+F45*(1-B45)</f>
@@ -5287,10 +5397,10 @@
         <v>0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>0.1</v>
@@ -5305,10 +5415,10 @@
         <v>2.1</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K46" s="0" t="n">
         <f aca="false">E46*B46+F46*(1-B46)</f>
@@ -5335,10 +5445,10 @@
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>0.17</v>
@@ -5353,10 +5463,10 @@
         <v>2.17</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K47" s="0" t="n">
         <f aca="false">E47*B47+F47*(1-B47)</f>
@@ -5383,10 +5493,10 @@
         <v>0</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E48" s="4" t="n">
         <v>2.17</v>
@@ -5401,10 +5511,10 @@
         <v>2.12</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K48" s="4" t="n">
         <f aca="false">E48*B48+F48*(1-B48)</f>
@@ -5431,10 +5541,10 @@
         <v>1</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E49" s="4" t="n">
         <v>0.08</v>
@@ -5449,10 +5559,10 @@
         <v>0.125</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K49" s="4" t="n">
         <f aca="false">E49*B49+F49*(1-B49)</f>
@@ -5479,10 +5589,10 @@
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>0.14</v>
@@ -5497,10 +5607,10 @@
         <v>2.14</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K50" s="0" t="n">
         <f aca="false">E50*B50+F50*(1-B50)</f>
@@ -5527,10 +5637,10 @@
         <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>0.19</v>
@@ -5545,10 +5655,10 @@
         <v>2.11</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K51" s="0" t="n">
         <f aca="false">E51*B51+F51*(1-B51)</f>
@@ -5575,10 +5685,10 @@
         <v>1</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E52" s="4" t="n">
         <v>0.19</v>
@@ -5593,10 +5703,10 @@
         <v>0.14</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K52" s="4" t="n">
         <f aca="false">E52*B52+F52*(1-B52)</f>
@@ -5623,10 +5733,10 @@
         <v>0</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>0.11</v>
@@ -5641,10 +5751,10 @@
         <v>2.165</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K53" s="0" t="n">
         <f aca="false">E53*B53+F53*(1-B53)</f>
@@ -5671,10 +5781,10 @@
         <v>1</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>2.2</v>
@@ -5689,10 +5799,10 @@
         <v>2.125</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K54" s="2" t="n">
         <f aca="false">E54*B54+F54*(1-B54)</f>
@@ -5710,6 +5820,9 @@
         <f aca="false">G54*(1-B54) + H54*B54</f>
         <v>2.125</v>
       </c>
+      <c r="O54" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
@@ -5719,10 +5832,10 @@
         <v>0</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>0.12</v>
@@ -5737,10 +5850,10 @@
         <v>2.14</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K55" s="0" t="n">
         <f aca="false">E55*B55+F55*(1-B55)</f>
@@ -5767,10 +5880,10 @@
         <v>1</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E56" s="4" t="n">
         <v>0.12</v>
@@ -5785,10 +5898,10 @@
         <v>0.125</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K56" s="4" t="n">
         <f aca="false">E56*B56+F56*(1-B56)</f>
@@ -5815,10 +5928,10 @@
         <v>0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E57" s="0" t="n">
         <v>0.16</v>
@@ -5833,10 +5946,10 @@
         <v>2.165</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K57" s="0" t="n">
         <f aca="false">E57*B57+F57*(1-B57)</f>
@@ -5863,10 +5976,10 @@
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>2.2</v>
@@ -5881,10 +5994,10 @@
         <v>0.14</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K58" s="0" t="n">
         <f aca="false">E58*B58+F58*(1-B58)</f>
@@ -5911,10 +6024,10 @@
         <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>2.22</v>
@@ -5929,10 +6042,10 @@
         <v>0.165</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K59" s="0" t="n">
         <f aca="false">E59*B59+F59*(1-B59)</f>
@@ -5959,10 +6072,10 @@
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>0.15</v>
@@ -5977,10 +6090,10 @@
         <v>2.07</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K60" s="0" t="n">
         <f aca="false">E60*B60+F60*(1-B60)</f>
@@ -6007,10 +6120,10 @@
         <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E61" s="1" t="n">
         <v>0.19</v>
@@ -6025,10 +6138,10 @@
         <v>2.115</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K61" s="1" t="n">
         <f aca="false">E61*B61+F61*(1-B61)</f>
@@ -6055,10 +6168,10 @@
         <v>1</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E62" s="4" t="n">
         <v>0.31</v>
@@ -6073,10 +6186,10 @@
         <v>0.125</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K62" s="4" t="n">
         <f aca="false">E62*B62+F62*(1-B62)</f>
@@ -6103,10 +6216,10 @@
         <v>0</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E63" s="2" t="n">
         <v>0.29</v>
@@ -6121,10 +6234,10 @@
         <v>0.01</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K63" s="2" t="n">
         <f aca="false">E63*B63+F63*(1-B63)</f>
@@ -6142,6 +6255,9 @@
         <f aca="false">G63*(1-B63) + H63*B63</f>
         <v>2.32</v>
       </c>
+      <c r="O63" s="3" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
@@ -6151,10 +6267,10 @@
         <v>1</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>2.19</v>
@@ -6169,10 +6285,10 @@
         <v>0.025</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K64" s="0" t="n">
         <f aca="false">E64*B64+F64*(1-B64)</f>
@@ -6199,10 +6315,10 @@
         <v>0</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E65" s="4" t="n">
         <v>2.18</v>
@@ -6217,10 +6333,10 @@
         <v>2.145</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K65" s="4" t="n">
         <f aca="false">E65*B65+F65*(1-B65)</f>
@@ -6247,10 +6363,10 @@
         <v>1</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E66" s="4" t="n">
         <v>-1</v>
@@ -6265,10 +6381,10 @@
         <v>0.03</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K66" s="4" t="n">
         <f aca="false">E66*B66+F66*(1-B66)</f>
@@ -6295,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E67" s="1" t="n">
         <v>0.19</v>
@@ -6313,10 +6429,10 @@
         <v>2.14</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K67" s="1" t="n">
         <f aca="false">E67*B67+F67*(1-B67)</f>
@@ -6379,7 +6495,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -6387,10 +6503,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6445,10 +6561,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>2.41</v>
@@ -6463,10 +6579,10 @@
         <v>0.075</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K4" s="0" t="n">
         <f aca="false">E4*B4+F4*(1-B4)</f>
@@ -6493,10 +6609,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>0.17</v>
@@ -6511,10 +6627,10 @@
         <v>0.09</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K5" s="4" t="n">
         <f aca="false">E5*B5+F5*(1-B5)</f>
@@ -6541,10 +6657,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>2.17</v>
@@ -6559,10 +6675,10 @@
         <v>0.06</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K6" s="0" t="n">
         <f aca="false">E6*B6+F6*(1-B6)</f>
@@ -6589,10 +6705,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E7" s="7" t="n">
         <v>0.1</v>
@@ -6607,10 +6723,10 @@
         <v>2.1</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="n">
         <f aca="false">E7*B7+F7*(1-B7)</f>
@@ -6637,10 +6753,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>2.17</v>
@@ -6655,10 +6771,10 @@
         <v>0.125</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K8" s="0" t="n">
         <f aca="false">E8*B8+F8*(1-B8)</f>
@@ -6685,10 +6801,10 @@
         <v>0</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E9" s="9" t="n">
         <v>0.18</v>
@@ -6703,10 +6819,10 @@
         <v>0.085</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K9" s="9" t="n">
         <f aca="false">E9*B9+F9*(1-B9)</f>
@@ -6733,10 +6849,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>2.21</v>
@@ -6751,10 +6867,10 @@
         <v>0.13</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K10" s="0" t="n">
         <f aca="false">E10*B10+F10*(1-B10)</f>
@@ -6781,10 +6897,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0.17</v>
@@ -6799,10 +6915,10 @@
         <v>2.16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K11" s="0" t="n">
         <f aca="false">E11*B11+F11*(1-B11)</f>
@@ -6829,10 +6945,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E12" s="9" t="n">
         <v>2.21</v>
@@ -6847,10 +6963,10 @@
         <v>2.145</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K12" s="9" t="n">
         <f aca="false">E12*B12+F12*(1-B12)</f>
@@ -6877,10 +6993,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0.2</v>
@@ -6895,10 +7011,10 @@
         <v>2.14</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K13" s="0" t="n">
         <f aca="false">E13*B13+F13*(1-B13)</f>
@@ -6925,10 +7041,10 @@
         <v>0</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0.16</v>
@@ -6943,10 +7059,10 @@
         <v>2.115</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K14" s="0" t="n">
         <f aca="false">E14*B14+F14*(1-B14)</f>
@@ -6973,10 +7089,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>2.19</v>
@@ -6991,10 +7107,10 @@
         <v>0.115</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K15" s="0" t="n">
         <f aca="false">E15*B15+F15*(1-B15)</f>
@@ -7024,7 +7140,7 @@
         <v>115</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E16" s="9" t="n">
         <v>2.2</v>
@@ -7039,10 +7155,10 @@
         <v>2.09</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K16" s="9" t="n">
         <f aca="false">E16*B16+F16*(1-B16)</f>
@@ -7072,7 +7188,7 @@
         <v>115</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>2.2</v>
@@ -7087,7 +7203,7 @@
         <v>0.11</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K17" s="0" t="n">
         <f aca="false">E17*B17+F17*(1-B17)</f>
@@ -7114,7 +7230,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7125,10 +7241,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E20" s="9" t="n">
         <v>0.18</v>
@@ -7143,10 +7259,10 @@
         <v>0.085</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K20" s="9" t="n">
         <f aca="false">E20*B20+F20*(1-B20)</f>
@@ -7167,17 +7283,17 @@
     </row>
     <row r="21" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7188,10 +7304,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E24" s="9" t="n">
         <v>2.21</v>
@@ -7206,10 +7322,10 @@
         <v>2.145</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K24" s="9" t="n">
         <f aca="false">E24*B24+F24*(1-B24)</f>
@@ -7230,12 +7346,12 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7249,7 +7365,7 @@
         <v>115</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E27" s="9" t="n">
         <v>2.2</v>
@@ -7264,10 +7380,10 @@
         <v>2.09</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K27" s="9" t="n">
         <f aca="false">E27*B27+F27*(1-B27)</f>
@@ -7288,33 +7404,33 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
